--- a/data/qa/QTP/Test029.xlsx
+++ b/data/qa/QTP/Test029.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3450" windowWidth="21615" windowHeight="11685"/>
+    <workbookView xWindow="1545" yWindow="3000" windowWidth="21615" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="TST001" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>Logs out of CAI; CAI login page loaded</t>
   </si>
   <si>
-    <t>Test002</t>
-  </si>
-  <si>
     <t>Under Genomic Data Sources section, click Add new Button</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Look for row with Study Name=Test029 {timestamp}</t>
+  </si>
+  <si>
+    <t>Test029</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -629,10 +629,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -692,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -802,10 +802,10 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
         <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -813,7 +813,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -824,10 +824,10 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="6:9">
@@ -835,10 +835,10 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
         <v>63</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="6:9">
@@ -846,13 +846,13 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="6:9">
@@ -860,10 +860,10 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="6:9">
@@ -882,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
         <v>42</v>
@@ -904,7 +904,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
         <v>45</v>

--- a/data/qa/QTP/Test029.xlsx
+++ b/data/qa/QTP/Test029.xlsx
@@ -195,9 +195,6 @@
     <t>Group Name=SUBJECTS, Description=subjects, File= https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Annotation_Groups/Annotation_Group.csv</t>
   </si>
   <si>
-    <t>Input filename= https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Subject_Data/Subject_Data.csv</t>
-  </si>
-  <si>
     <t>Input data from https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Genomic/Parsed/caArray_data_source_parsed_3samples.xls and click save</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Test029</t>
+  </si>
+  <si>
+    <t>Input filename= https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Subject_Data/Subject_Data-small3x3.csv</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -629,7 +629,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -813,7 +813,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -824,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
         <v>53</v>
@@ -835,10 +835,10 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
         <v>62</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="6:9">
@@ -846,13 +846,13 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="6:9">
@@ -860,7 +860,7 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
         <v>54</v>
@@ -882,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
         <v>42</v>
